--- a/medicine/Enfance/Jean_Gourounas/Jean_Gourounas.xlsx
+++ b/medicine/Enfance/Jean_Gourounas/Jean_Gourounas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Gourounas, né le 5 mai 1965 à Saint-Étienne[1] (Loire), est un artiste français, graphiste, illustrateur et auteur de littérature jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Gourounas, né le 5 mai 1965 à Saint-Étienne (Loire), est un artiste français, graphiste, illustrateur et auteur de littérature jeunesse.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Gourounas vit et travaille dans sa ville natale, Saint-Étienne[2]. Après un BEP d’Arts graphiques, il est formé à l'École des Beaux-Arts de Saint-Étienne durant deux années[2], puis travaille comme graphiste dans la communication.
-Il publie son premier ouvrage jeunesse en 2001, aux éditions du Rouergue, qu'il écrit et illustre : Opéra bouffe. Son troisième ouvrage, Grosse légume, paru aux mêmes éditions, demeure l'un de ses plus célèbres, et reçoit en 2005 le Prix Sorcières[3] dans la catégorie Tout-petits, et le Prix Bernard Versele[4], et, en 2009, le Prix des incorruptibles. L'album figure dans la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Gourounas vit et travaille dans sa ville natale, Saint-Étienne. Après un BEP d’Arts graphiques, il est formé à l'École des Beaux-Arts de Saint-Étienne durant deux années, puis travaille comme graphiste dans la communication.
+Il publie son premier ouvrage jeunesse en 2001, aux éditions du Rouergue, qu'il écrit et illustre : Opéra bouffe. Son troisième ouvrage, Grosse légume, paru aux mêmes éditions, demeure l'un de ses plus célèbres, et reçoit en 2005 le Prix Sorcières dans la catégorie Tout-petits, et le Prix Bernard Versele, et, en 2009, le Prix des incorruptibles. L'album figure dans la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF).
 Il a écrit et illustré une vingtaine d'ouvrages, comme seul auteur, essentiellement aux éditions du Rouergue, et depuis 2013, à l'Atelier du poisson soluble.
 </t>
         </is>
@@ -544,14 +558,16 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2004 :  Prix Bernard Versele[6],[4] pour Avis de tempête
-2005 : Prix Sorcières[3] catégorie Tout-petits, pour Grosse légume
-2005 :  Prix Bernard Versele[4] pour Grosse légume
-2009 : Prix des incorruptibles[7]  pour Grosse légume
-2018 : Sélection « Pépites internationales »[8] (Salon du livre et de la presse jeunesse de Montreuil, et Institut français) pour Les Ogres
-Un de ses ouvrages fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[5] : Grosse légume (2003), qu'il a écrit et illustré.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2004 :  Prix Bernard Versele, pour Avis de tempête
+2005 : Prix Sorcières catégorie Tout-petits, pour Grosse légume
+2005 :  Prix Bernard Versele pour Grosse légume
+2009 : Prix des incorruptibles  pour Grosse légume
+2018 : Sélection « Pépites internationales » (Salon du livre et de la presse jeunesse de Montreuil, et Institut français) pour Les Ogres
+Un de ses ouvrages fait partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) : Grosse légume (2003), qu'il a écrit et illustré.
 </t>
         </is>
       </c>
@@ -580,12 +596,14 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Textes et illustrations
 Opéra bouffe, éditions du Rouergue, 2001
-Avis de tempête[9], éditions du Rouergue, 2002 ; rééd. Actes sud junior, 2015 Prix Bernard Versele[6],[4] 2004 
- Grosse légume, Rouergue, 2003  Prix Sorcières 2005[3] - Prix Bernard Versele[4] 2005 -  Prix des incorruptibles[7] 2009  - « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[5]
+Avis de tempête, éditions du Rouergue, 2002 ; rééd. Actes sud junior, 2015 Prix Bernard Versele, 2004 
+ Grosse légume, Rouergue, 2003  Prix Sorcières 2005 - Prix Bernard Versele 2005 -  Prix des incorruptibles 2009  - « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)
 Loup yéti ?, Rouergue, 2003
 Le problème avec Gisèle, Rouergue, 2003
 Sale bête !, Rouergue, 2004
@@ -601,10 +619,10 @@
 Le mille-pattes, Rouergue, 2011
 Girafe, Rouergue, 2012
  Jenny la cow-boy, l'Atelier du poisson soluble, 2013
- Alors, ça mord ? [10], Atelier du poisson soluble, 2015
+ Alors, ça mord ? , Atelier du poisson soluble, 2015
 Caméléon, Atelier du poisson soluble, 2016
 Elle est bonne ?, Atelier du poisson soluble, 2017
-Les Ogres[11],[12], Rouergue, 2017 Sélection « Pépites internationales »[8] (Salon du livre et de la presse jeunesse de Montreuil, et Institut français) 
+Les Ogres Rouergue, 2017 Sélection « Pépites internationales » (Salon du livre et de la presse jeunesse de Montreuil, et Institut français) 
  La petite poule rousse,  l'Atelier du poisson soluble, 2018
 Ça marche ou pas ?,  l'Atelier du poisson soluble, 2018
 Au boulot ! : un imagier des métiers,  l'Atelier du poisson soluble, 2019
@@ -636,10 +654,12 @@
           <t>Adaptation de son œuvre</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En spectacle de marionnettes
-Avis de tempêtes, d'après ses ouvrages Loup Yéti ? ; Opéra bouffe et Avis de tempête[13],  mise en scène et acteur Stéphane Duron,  coproduction Compagnie le Point d'Ariès, Espace Bonnefoy, Toulouse, et le Moulin du roc, Niort, création 2007[14], et tournées 2007-2010[15]</t>
+Avis de tempêtes, d'après ses ouvrages Loup Yéti ? ; Opéra bouffe et Avis de tempête,  mise en scène et acteur Stéphane Duron,  coproduction Compagnie le Point d'Ariès, Espace Bonnefoy, Toulouse, et le Moulin du roc, Niort, création 2007, et tournées 2007-2010</t>
         </is>
       </c>
     </row>
